--- a/simulation_data/one_step_algorithm/1s_error_level_8_percent_water_20.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_8_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.98059942147425</v>
+        <v>89.7651482642803</v>
       </c>
       <c r="D2" t="n">
-        <v>2.486653891861105</v>
+        <v>2.934331166853373</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.09959431140761</v>
+        <v>89.08384125949262</v>
       </c>
       <c r="D3" t="n">
-        <v>2.648729876324357</v>
+        <v>2.971157361274288</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.52635345562234</v>
+        <v>88.01569919193227</v>
       </c>
       <c r="D4" t="n">
-        <v>2.72838552521503</v>
+        <v>2.633169145612642</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.044883708347</v>
+        <v>86.86237545132487</v>
       </c>
       <c r="D5" t="n">
-        <v>2.70146617570646</v>
+        <v>3.198301634901673</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.72392642649807</v>
+        <v>85.37416858771063</v>
       </c>
       <c r="D6" t="n">
-        <v>3.321567860788307</v>
+        <v>2.731144716859451</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.14155446911353</v>
+        <v>85.15792688546928</v>
       </c>
       <c r="D7" t="n">
-        <v>2.713025574469248</v>
+        <v>2.72688935434186</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.19041765108126</v>
+        <v>84.04098883999357</v>
       </c>
       <c r="D8" t="n">
-        <v>2.48351271756608</v>
+        <v>3.1568171348481</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.06184009448212</v>
+        <v>82.86938330537929</v>
       </c>
       <c r="D9" t="n">
-        <v>3.22013678539565</v>
+        <v>3.418791046877336</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.97827813742606</v>
+        <v>81.53683237473071</v>
       </c>
       <c r="D10" t="n">
-        <v>2.853934885327774</v>
+        <v>2.507409898905233</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.96827195397049</v>
+        <v>80.94885940218002</v>
       </c>
       <c r="D11" t="n">
-        <v>3.059243163230445</v>
+        <v>3.229951619169863</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.61819287679276</v>
+        <v>79.46068414179761</v>
       </c>
       <c r="D12" t="n">
-        <v>3.235896049528242</v>
+        <v>2.895574530137052</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.76307175950218</v>
+        <v>79.11050696851487</v>
       </c>
       <c r="D13" t="n">
-        <v>3.19605778498046</v>
+        <v>3.270727364185519</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.67918289194868</v>
+        <v>78.18931550123789</v>
       </c>
       <c r="D14" t="n">
-        <v>2.967521128983021</v>
+        <v>3.358364664393793</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.56376236282625</v>
+        <v>76.46956514129964</v>
       </c>
       <c r="D15" t="n">
-        <v>3.556180667273762</v>
+        <v>3.412007775649554</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.87887284551169</v>
+        <v>75.0957445221139</v>
       </c>
       <c r="D16" t="n">
-        <v>3.48767169340834</v>
+        <v>3.440515762171624</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.58447711738114</v>
+        <v>75.00273014382958</v>
       </c>
       <c r="D17" t="n">
-        <v>3.163759519733268</v>
+        <v>3.090105259518725</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>72.96449885896477</v>
+        <v>73.75896257288336</v>
       </c>
       <c r="D18" t="n">
-        <v>3.361170152815499</v>
+        <v>3.084374392961795</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.90216794611496</v>
+        <v>72.74089690888326</v>
       </c>
       <c r="D19" t="n">
-        <v>3.676362452527486</v>
+        <v>3.232861960037667</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.86314341316576</v>
+        <v>71.53692853364157</v>
       </c>
       <c r="D20" t="n">
-        <v>3.88655659921538</v>
+        <v>3.191532512127759</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.3647050252913</v>
+        <v>70.9752295569466</v>
       </c>
       <c r="D21" t="n">
-        <v>3.642654039876434</v>
+        <v>3.670326921291782</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.6164480811981</v>
+        <v>69.38767744810004</v>
       </c>
       <c r="D22" t="n">
-        <v>3.38352861318851</v>
+        <v>3.263796189450525</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.64622269818207</v>
+        <v>68.18754385468306</v>
       </c>
       <c r="D23" t="n">
-        <v>3.706672131160537</v>
+        <v>3.832618176232855</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.48991541999939</v>
+        <v>66.80795324308977</v>
       </c>
       <c r="D24" t="n">
-        <v>3.627535802166889</v>
+        <v>4.0581300749687</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.1864710958119</v>
+        <v>66.25720727991195</v>
       </c>
       <c r="D25" t="n">
-        <v>3.618127477996592</v>
+        <v>4.182517003512176</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.06221321580807</v>
+        <v>66.05283593709467</v>
       </c>
       <c r="D26" t="n">
-        <v>3.013237073455567</v>
+        <v>3.350576213842453</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.55722134278523</v>
+        <v>65.76311975366951</v>
       </c>
       <c r="D27" t="n">
-        <v>3.32987728735001</v>
+        <v>3.797297198193704</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.28226497811247</v>
+        <v>63.52582966237934</v>
       </c>
       <c r="D28" t="n">
-        <v>4.173149187155353</v>
+        <v>4.028015841209695</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.20414868105867</v>
+        <v>63.05849529094026</v>
       </c>
       <c r="D29" t="n">
-        <v>3.745882411919473</v>
+        <v>3.797110434019116</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.03389331894962</v>
+        <v>61.69853632838015</v>
       </c>
       <c r="D30" t="n">
-        <v>4.321974062801913</v>
+        <v>4.047158693429938</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>59.84292702312752</v>
+        <v>61.15824729110308</v>
       </c>
       <c r="D31" t="n">
-        <v>4.290808214012371</v>
+        <v>4.033102773992414</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.81454593679198</v>
+        <v>60.09825568726241</v>
       </c>
       <c r="D32" t="n">
-        <v>4.525712894541155</v>
+        <v>4.763606175977524</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.68986799403919</v>
+        <v>58.84146480907911</v>
       </c>
       <c r="D33" t="n">
-        <v>4.287180714710694</v>
+        <v>3.862742233158006</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.73148003221435</v>
+        <v>57.57135283760193</v>
       </c>
       <c r="D34" t="n">
-        <v>4.191029285145449</v>
+        <v>3.732370081769938</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.6253947896048</v>
+        <v>57.48189113956073</v>
       </c>
       <c r="D35" t="n">
-        <v>4.478543179415289</v>
+        <v>4.645265465021174</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.68620919701047</v>
+        <v>55.69127542749867</v>
       </c>
       <c r="D36" t="n">
-        <v>4.362776929893209</v>
+        <v>4.338557814529425</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.60572950259006</v>
+        <v>54.77701878186553</v>
       </c>
       <c r="D37" t="n">
-        <v>4.552074729046136</v>
+        <v>3.790309701151783</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.05722572239487</v>
+        <v>53.09759241783023</v>
       </c>
       <c r="D38" t="n">
-        <v>4.216951991341659</v>
+        <v>4.466408179337323</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.63178042583484</v>
+        <v>52.36202883896664</v>
       </c>
       <c r="D39" t="n">
-        <v>4.173655761887418</v>
+        <v>4.382563679707358</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.58402962877831</v>
+        <v>51.74292099023497</v>
       </c>
       <c r="D40" t="n">
-        <v>4.021781712777183</v>
+        <v>3.80231833570224</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.33852204650685</v>
+        <v>51.41556550707514</v>
       </c>
       <c r="D41" t="n">
-        <v>3.948523233128555</v>
+        <v>4.557381226819484</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.48332809603275</v>
+        <v>50.01915267026877</v>
       </c>
       <c r="D42" t="n">
-        <v>4.630739519274144</v>
+        <v>4.149739555477067</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.71846779568403</v>
+        <v>47.63556925694508</v>
       </c>
       <c r="D43" t="n">
-        <v>4.783498644941798</v>
+        <v>5.411087082610552</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.8714281819849</v>
+        <v>47.80391747360195</v>
       </c>
       <c r="D44" t="n">
-        <v>4.700575075953271</v>
+        <v>4.773202043516091</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.57366487048044</v>
+        <v>46.12015531327346</v>
       </c>
       <c r="D45" t="n">
-        <v>5.269320618008405</v>
+        <v>4.829144354739822</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.90214782135948</v>
+        <v>46.3920294339817</v>
       </c>
       <c r="D46" t="n">
-        <v>4.097774517035305</v>
+        <v>4.664843747128925</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.90011346390651</v>
+        <v>44.63000352058268</v>
       </c>
       <c r="D47" t="n">
-        <v>5.072499320402019</v>
+        <v>4.778330267068844</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.79651089732854</v>
+        <v>44.27167521965064</v>
       </c>
       <c r="D48" t="n">
-        <v>5.27769859146797</v>
+        <v>4.163476983627643</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.77948364502258</v>
+        <v>42.3130832225666</v>
       </c>
       <c r="D49" t="n">
-        <v>4.953568938191821</v>
+        <v>4.967742790686692</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.39022448763357</v>
+        <v>41.21101835697034</v>
       </c>
       <c r="D50" t="n">
-        <v>4.991116227075413</v>
+        <v>5.205257343841632</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.43492647400196</v>
+        <v>40.97355633807116</v>
       </c>
       <c r="D51" t="n">
-        <v>4.876029056665805</v>
+        <v>4.593193531903148</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.66597089485286</v>
+        <v>39.24210582921271</v>
       </c>
       <c r="D52" t="n">
-        <v>5.498591606286194</v>
+        <v>4.483160114057939</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.25856820433889</v>
+        <v>38.64811981789501</v>
       </c>
       <c r="D53" t="n">
-        <v>4.955807456598208</v>
+        <v>4.971721669474912</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.26615796645127</v>
+        <v>37.61870387485342</v>
       </c>
       <c r="D54" t="n">
-        <v>5.087995717793343</v>
+        <v>4.754367966475869</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.01370844961037</v>
+        <v>37.17241569631308</v>
       </c>
       <c r="D55" t="n">
-        <v>4.750481834310116</v>
+        <v>4.449566720339735</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.36296933983989</v>
+        <v>35.97035406541809</v>
       </c>
       <c r="D56" t="n">
-        <v>5.016430330868279</v>
+        <v>5.281615620322942</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.08391380576378</v>
+        <v>34.98973756785728</v>
       </c>
       <c r="D57" t="n">
-        <v>4.900291526431127</v>
+        <v>5.064020339821641</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.27811695803194</v>
+        <v>33.73243479158523</v>
       </c>
       <c r="D58" t="n">
-        <v>5.465914182569861</v>
+        <v>5.067229936517179</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.21006888384075</v>
+        <v>33.56388825326643</v>
       </c>
       <c r="D59" t="n">
-        <v>5.27117478777351</v>
+        <v>5.119680924894649</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.82800878214776</v>
+        <v>31.28677348804285</v>
       </c>
       <c r="D60" t="n">
-        <v>6.133391432129387</v>
+        <v>5.283896555869326</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.9029245280749</v>
+        <v>30.71623408789046</v>
       </c>
       <c r="D61" t="n">
-        <v>6.035665400869774</v>
+        <v>4.731826125778359</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.46162368079325</v>
+        <v>30.10647632534032</v>
       </c>
       <c r="D62" t="n">
-        <v>5.052215538919778</v>
+        <v>5.556604399262742</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.31215514067008</v>
+        <v>28.39713401267282</v>
       </c>
       <c r="D63" t="n">
-        <v>5.093337273675026</v>
+        <v>5.140824096297297</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.34384213658551</v>
+        <v>28.00482416896065</v>
       </c>
       <c r="D64" t="n">
-        <v>4.955015843653064</v>
+        <v>5.510832519472532</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.53659126928822</v>
+        <v>26.24325643833264</v>
       </c>
       <c r="D65" t="n">
-        <v>6.007175745799571</v>
+        <v>5.909650808141343</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>24.66378529690204</v>
+        <v>26.18234296830972</v>
       </c>
       <c r="D66" t="n">
-        <v>5.548170598276746</v>
+        <v>4.735990950876602</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.87865255591944</v>
+        <v>24.49881068171199</v>
       </c>
       <c r="D67" t="n">
-        <v>5.317047971534227</v>
+        <v>6.04108020299</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.12832271237652</v>
+        <v>23.65936266301658</v>
       </c>
       <c r="D68" t="n">
-        <v>5.532163551778862</v>
+        <v>5.434491255926638</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.08136060810016</v>
+        <v>22.4323707604695</v>
       </c>
       <c r="D69" t="n">
-        <v>5.258772829873633</v>
+        <v>4.892996109093295</v>
       </c>
     </row>
   </sheetData>
